--- a/biology/Botanique/Oued_Mellah/Oued_Mellah.xlsx
+++ b/biology/Botanique/Oued_Mellah/Oued_Mellah.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'oued Malleh (oued signifie cours d'eau en arabe, malleh signifie sel) est un fleuve côtier marocain de la région de Casablanca. Son eau, comme celle de beaucoup d'oueds du Maroc, véhicule un peu de sel.
@@ -512,11 +524,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa vallée s'étend du massif de Khatouat à l'océan Atlantique, en traversant la Meseta côtière Marocaine d'est en ouest. Il s'agit de la première vallée traversée sur le chemin de Rabat depuis Casablanca, entre Aïn-Harrouda et Aïn-Tekki[1].
-Il prend sa source à l'Aïn Soltane, dans les contreforts du Moyen Atlas, à 20 km au nord-ouest de Khouribga, près de la kasbah Moulay-Abd-el-Aziz, à 760 m d'altitude, sur le versant sud-est du massif du Khatouat[2]. Tout au long de son cours (environ 160 km), depuis sa source, il reçoit les noms d'oued Zamrine, oued Zemrane et, au confluent avec l'oued EL Ateuch, il devient l'oued Mellah.
-Il se jette dans l'océan Atlantique au sud de Mohammedia (ex Fédala)[3]. La route de Casablanca à Rabat descend en lacets serrés vers le fond d'une profonde vallée encaissée et travers sur un pont routier bas puis remonte encore en lacets. Ce pont est inondable lors des violentes crues hivernales de l'oued[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa vallée s'étend du massif de Khatouat à l'océan Atlantique, en traversant la Meseta côtière Marocaine d'est en ouest. Il s'agit de la première vallée traversée sur le chemin de Rabat depuis Casablanca, entre Aïn-Harrouda et Aïn-Tekki.
+Il prend sa source à l'Aïn Soltane, dans les contreforts du Moyen Atlas, à 20 km au nord-ouest de Khouribga, près de la kasbah Moulay-Abd-el-Aziz, à 760 m d'altitude, sur le versant sud-est du massif du Khatouat. Tout au long de son cours (environ 160 km), depuis sa source, il reçoit les noms d'oued Zamrine, oued Zemrane et, au confluent avec l'oued EL Ateuch, il devient l'oued Mellah.
+Il se jette dans l'océan Atlantique au sud de Mohammedia (ex Fédala). La route de Casablanca à Rabat descend en lacets serrés vers le fond d'une profonde vallée encaissée et travers sur un pont routier bas puis remonte encore en lacets. Ce pont est inondable lors des violentes crues hivernales de l'oued.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Régions parcourues</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De sa source à son embouchure, il traverse trois régions bien distinctes et d'importance relative différentes :
 le plateau central marocain (pays Zaër-Zayan) au pied du Moyen Atlas,
@@ -580,9 +596,11 @@
           <t>Aspect géologique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le creusement de la vallée orientée SE-NW, dans le domaine de la méséta marocaine, révèle[5]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le creusement de la vallée orientée SE-NW, dans le domaine de la méséta marocaine, révèle:
 un substratum ancien (allant du primaire au tertiaire),
 une couverture quaternaire.
 Le socle paléozoïque plissé est une pénéplaine bien arase, gardant de place en place les terrains de l'Acadien et, par endroits, des lambeaux de Silurien.
@@ -623,7 +641,9 @@
           <t>Géomorphologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le soubassement géologique conditionne les différents paysages géomorphologiques. Au pied du Khatouat, le fleuve traverse un système de failles et de flexures faillées géologiques orientées WSW-ENE plus connu sous le nom de flexure de Zettat. Cette flexure correspond à un changement dans la pente et coïncide avec un nouvel ensemble de conditions géologiques.
 Dans on cours moyen, sur la surface du plateau, le fleuve a creusé une profonde entaille (boutonnière) dont l'aspect et modifié localement par le soubassement géologique. On trouve deux paliers qui marquent une rupture de pente.
@@ -657,9 +677,11 @@
           <t>Aspect phytogéographique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la carte phytogéographique du Maroc au 1:1 500 000e[6], la vallée de l'Oued Mellah traverse, de sa source vers son embouchure :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la carte phytogéographique du Maroc au 1:1 500 000e, la vallée de l'Oued Mellah traverse, de sa source vers son embouchure :
 la zone à Callitris (Tetraclinis) articulata, au pied du Khatouate
 la zone à Olea europaea-Pistacia lentiscus-Chamaerops humilis, en moyenne vallée,
 la zone à Quercus suber,
@@ -695,10 +717,13 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pluviométrie
-Selon la carte des précipitations établie pour la période 1925-1950, la région comprise entre le pied du Khatouat et Mohammedia recevait en moyenne, par an, selon le tableau suivant :
-Indices climatiques
-Selon les travaux de Louis Emberger[7], « Les plaines argileuses du détroit sud-rifain et les  tirs du pays Zaer et de la Chaouia sont, ou plutôt étaient, occupés par une forêt basse ou une brousse à Olea, Pistacia Lentiscus ou Pistacia atlantica et Chamerops humilis. ». La région traversée par la moyenne et la basse vallée de l'oued Mellah font partie de l'ensemble Zaer-Chaouia décrit par cet auteur. La brousse à Olivier-Pistachier se situe dans l'étage bioclimatique méditerranéen semi-aride.
+          <t>Pluviométrie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la carte des précipitations établie pour la période 1925-1950, la région comprise entre le pied du Khatouat et Mohammedia recevait en moyenne, par an, selon le tableau suivant :
 </t>
         </is>
       </c>
@@ -724,68 +749,479 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Aspect bioclimatique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Indices climatiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon les travaux de Louis Emberger, « Les plaines argileuses du détroit sud-rifain et les  tirs du pays Zaer et de la Chaouia sont, ou plutôt étaient, occupés par une forêt basse ou une brousse à Olea, Pistacia Lentiscus ou Pistacia atlantica et Chamerops humilis. ». La région traversée par la moyenne et la basse vallée de l'oued Mellah font partie de l'ensemble Zaer-Chaouia décrit par cet auteur. La brousse à Olivier-Pistachier se situe dans l'étage bioclimatique méditerranéen semi-aride.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Oued_Mellah</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oued_Mellah</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Hydrologie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Les crues de l'oued Mellah sont soudaines et assez violentes, en rapport avec la saison humide. Il convient de distinguer deux sortes de régimes :
 des crues peu importantes, assez fréquentes, avec de petits débordements, ou crues de faible ampleur,
 des crues importantes, assez rares, durant seulement quelques jours et donnant lieu à des débordements spectaculaires.
 Le débit du fleuve est irrégulier, le barrage joue un rôle régulateur trop faible, il est vite saturé.
-Qualité des eaux
-Les analyses effectuées au pont de l'oued El Hassar et à la retenue du Barrage (montrent de fortes teneurs en ions sodium et chlore. La source qui sortait sur la rive gauche, en amont du barrage avait une forte teneur en chlorure de sodium (187 g/l). En 1964, le canal de dérivation qui conduisait cette eau en aval du barrage était hors d'usage. Les arboriculteurs situés en aval du barrage et qui utilisent l'eau de l'oued doivent surveiller étroitement les teneurs en sel en saison estivale.
-Limnologie
-Selon des documents récents publiés par trois chercheurs marocains, le lac en amont du barrage est eutrophisé[8].
-Utilisation touristique
-Le plan d'eau du lac produit une évaporation intense qui en fait un endroit relativement frais. Les fins de semaine amènent sur les rives du lac des promeneurs et des baigneurs. Les retours vers Mohammedia par la route qui longe la vallée, en aval du barrage, sont une opportunité d'achats de fruits et légumés produits par les maraîchers installés là.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Oued_Mellah</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oued_Mellah</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Hydrologie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Qualité des eaux</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les analyses effectuées au pont de l'oued El Hassar et à la retenue du Barrage (montrent de fortes teneurs en ions sodium et chlore. La source qui sortait sur la rive gauche, en amont du barrage avait une forte teneur en chlorure de sodium (187 g/l). En 1964, le canal de dérivation qui conduisait cette eau en aval du barrage était hors d'usage. Les arboriculteurs situés en aval du barrage et qui utilisent l'eau de l'oued doivent surveiller étroitement les teneurs en sel en saison estivale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Oued_Mellah</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oued_Mellah</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Hydrologie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Limnologie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon des documents récents publiés par trois chercheurs marocains, le lac en amont du barrage est eutrophisé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Oued_Mellah</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oued_Mellah</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Hydrologie</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Utilisation touristique</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le plan d'eau du lac produit une évaporation intense qui en fait un endroit relativement frais. Les fins de semaine amènent sur les rives du lac des promeneurs et des baigneurs. Les retours vers Mohammedia par la route qui longe la vallée, en aval du barrage, sont une opportunité d'achats de fruits et légumés produits par les maraîchers installés là.
 Le lac servait en 1976 de base nautique à la pratique du windsurf.
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Oued_Mellah</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Oued_Mellah</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Oued_Mellah</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oued_Mellah</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Aspect botanique</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À environ 30 km de la mer, la vallée pénètre dans une profonde gorge barrée coupée par un barrage. Ce barrage sert à capter l'eau pour alimenter la ville de Casablanca. Derrière ce barrage,vers l'amont, la vallée s'élargit. On trouve là, sur la rive nord (rive droite) sur des argiles rouges triasiques salées, une population d'une quinzaine de Gommiers marocains (gommier marocain)[9]. Sur la rive sud (rive gauche, un captage avait été installé afin de détourner les eaux d'une source salée qui étaient exploitées dans des saline.
-Cultures
-Le plateau de la meseta est recouvert par de riches sols noirs, les tirs. Ces sols ont été cultivés depuis les débuts de la colonisation et les apports d'engrais de toutes sortes ont certainement beaucoup contribué à l'eutrophisation du cours d'eau et de son lac de barrage.
-Végétation ligneuse
-La végétation ligneuse qui subsiste dans de nombreux endroits préservés (les cimetières, les sources et les alentours des koubas de marabouts) est riche en espèces qui ont poussé là depuis des temps immémoriaux.
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À environ 30 km de la mer, la vallée pénètre dans une profonde gorge barrée coupée par un barrage. Ce barrage sert à capter l'eau pour alimenter la ville de Casablanca. Derrière ce barrage,vers l'amont, la vallée s'élargit. On trouve là, sur la rive nord (rive droite) sur des argiles rouges triasiques salées, une population d'une quinzaine de Gommiers marocains (gommier marocain). Sur la rive sud (rive gauche, un captage avait été installé afin de détourner les eaux d'une source salée qui étaient exploitées dans des saline.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Oued_Mellah</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oued_Mellah</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Aspect botanique</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Cultures</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le plateau de la meseta est recouvert par de riches sols noirs, les tirs. Ces sols ont été cultivés depuis les débuts de la colonisation et les apports d'engrais de toutes sortes ont certainement beaucoup contribué à l'eutrophisation du cours d'eau et de son lac de barrage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Oued_Mellah</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oued_Mellah</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Aspect botanique</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Végétation ligneuse</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La végétation ligneuse qui subsiste dans de nombreux endroits préservés (les cimetières, les sources et les alentours des koubas de marabouts) est riche en espèces qui ont poussé là depuis des temps immémoriaux.
 Nous ne donnerons ici que quelques spécimens remarquables.
-Le gommier marocain
-Acacia gummifera Willd. (ou Gommier marocain) est une relique qui doit encore subsister dans la région. C'est une espèce endémique et les marocains la désignent sous le nom de talh bledi pour la différencier d'un autre acacia introduit (Acacia horrida) à longues épine blanches désigné comme talh roumi (le gommier des européens). Ce dernier atteint une taille double de celle d'Acacia gummifera. La photo montre un arbre isolé et préservé d'Acacia gummifera, lequel a vraisemblablement atteint sa taille maximale dans un lieu protégé (marabout ?).
-L'oléastre
-Olea europaea subsp. oleaster ou Oléastre (zebbouj en arabe) est présent de ci, de là, sur le plateau et parfois dans le fond de la vallée.
-Le palmier nain
-Chamaerops humilis ou Palmier nain (doum en arabe) est un végétal nain car il est brouté régulièrement par les troupeaux. Dans les cimetières qui entourent les koubas des marabouts, les pieds sont préservés et se développent pour atteindre leur taille maximale, soit 2 à 3 mètres.
-Le jujubier
-Ziziphus lotus ou Jujubier (Sder en arabe) est un buisson épineux qui a été largement défriché sur les zones cultivées. Il en subsiste quelques exemplaires qui ont développé un tronc ligneux. L'enracinement de ce végétal est prodigieux.
-Le Rtem
-Retama monosperma (L.) Lam. ou genêt blanc (rtem en arabe) est un arbuste qui a été larement exploité pour son bois par les charbonniers. On peut en trouver çà et là. Un exemplaire (voir photo) a pu se développer tranquillement au sommet de la Koudiat El Gaâda. En comparaison avec le spécimen arborescent, un spécimen buissonnant (en Espagne).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Oued_Mellah</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oued_Mellah</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Aspect botanique</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Végétation ligneuse</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Le gommier marocain</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acacia gummifera Willd. (ou Gommier marocain) est une relique qui doit encore subsister dans la région. C'est une espèce endémique et les marocains la désignent sous le nom de talh bledi pour la différencier d'un autre acacia introduit (Acacia horrida) à longues épine blanches désigné comme talh roumi (le gommier des européens). Ce dernier atteint une taille double de celle d'Acacia gummifera. La photo montre un arbre isolé et préservé d'Acacia gummifera, lequel a vraisemblablement atteint sa taille maximale dans un lieu protégé (marabout ?).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Oued_Mellah</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oued_Mellah</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Aspect botanique</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Végétation ligneuse</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>L'oléastre</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olea europaea subsp. oleaster ou Oléastre (zebbouj en arabe) est présent de ci, de là, sur le plateau et parfois dans le fond de la vallée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Oued_Mellah</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oued_Mellah</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Aspect botanique</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Végétation ligneuse</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Le palmier nain</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chamaerops humilis ou Palmier nain (doum en arabe) est un végétal nain car il est brouté régulièrement par les troupeaux. Dans les cimetières qui entourent les koubas des marabouts, les pieds sont préservés et se développent pour atteindre leur taille maximale, soit 2 à 3 mètres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Oued_Mellah</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oued_Mellah</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Aspect botanique</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Végétation ligneuse</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Le jujubier</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ziziphus lotus ou Jujubier (Sder en arabe) est un buisson épineux qui a été largement défriché sur les zones cultivées. Il en subsiste quelques exemplaires qui ont développé un tronc ligneux. L'enracinement de ce végétal est prodigieux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Oued_Mellah</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oued_Mellah</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Aspect botanique</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Végétation ligneuse</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Le Rtem</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Retama monosperma (L.) Lam. ou genêt blanc (rtem en arabe) est un arbuste qui a été larement exploité pour son bois par les charbonniers. On peut en trouver çà et là. Un exemplaire (voir photo) a pu se développer tranquillement au sommet de la Koudiat El Gaâda. En comparaison avec le spécimen arborescent, un spécimen buissonnant (en Espagne).
 </t>
         </is>
       </c>
